--- a/biology/Botanique/Parc_de_la_Cerisaie_(Reims)/Parc_de_la_Cerisaie_(Reims).xlsx
+++ b/biology/Botanique/Parc_de_la_Cerisaie_(Reims)/Parc_de_la_Cerisaie_(Reims).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Cerisaie est un parc rémois de 12 ha, dont 3 ha sont utilisés par des installations d’animation et de sport.
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc doit son nom à un ancien verger de cerisiers.
-Il a été inauguré le samedi 18 mai 2013 dans le cadre du projet de la Coulée Verte[1].
+Il a été inauguré le samedi 18 mai 2013 dans le cadre du projet de la Coulée Verte.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est un vaste espace arboré, d'une surface de 12 ha, situé entre le canal de la Canal de l'Aisne à la Marne et la Vesle.
 Il a été aménagé de façon naturelle. La végétation est peu travaillée.
-Il comporte un important réseau d’allées intérieures et situées le long de la Vesle[2].
+Il comporte un important réseau d’allées intérieures et situées le long de la Vesle.
 On y accède, officiellement, par la rue de la cerisaie et par les lignes de bus 6 ou 17 à l’arrêt Salengro.
 			Contour du parc de la Cerisaie.
 </t>
@@ -580,11 +596,13 @@
           <t>Les activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans ce parc, le Centre sports nature peut organiser différentes activités de glisse (Vélo Tout Terrain, Trottinette Tout Terrain, BMX) de Tir à l'arc (tir sur cibles, tir à l'oiseau, tir en campagne, du tir au drapeau), d’activités de grimpe (escale d'arbre, parcours d’accro-branche, l'escalade de la Via-Corda), des activités nautiques (canoë, raft et du stand-up paddle), des courses d'orientation[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce parc, le Centre sports nature peut organiser différentes activités de glisse (Vélo Tout Terrain, Trottinette Tout Terrain, BMX) de Tir à l'arc (tir sur cibles, tir à l'oiseau, tir en campagne, du tir au drapeau), d’activités de grimpe (escale d'arbre, parcours d’accro-branche, l'escalade de la Via-Corda), des activités nautiques (canoë, raft et du stand-up paddle), des courses d'orientation.
 Le centre organise aussi divers événements spéciaux comme des raids et des défis où les participants peuvent se mesurer les uns aux autres dans la bonne humeur !
-Une miellerie pédagogique a été installée en 2021[4].
+Une miellerie pédagogique a été installée en 2021.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>TRAC</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association TRAC (Toutes recherches artistiques et culturelles), propose des spectacles de cirque et de jongle.
 Depuis son ouverture, le parc accueillir, à la période estivale, le chapiteau du Temps des cerises pouvant accueillir jusqu’à 400 personnes (30, rue de la Cerisaie à Reims), qu’utilise l’association.
@@ -648,12 +668,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Villa 1900
-Dans le parc, une Villa art déco avec des fresques attribuées au peintre Louis Bardey, appelée Villa 1900 en raison de son inscription sur son fronton, est sans activité à ce jour.
+          <t>Villa 1900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le parc, une Villa art déco avec des fresques attribuées au peintre Louis Bardey, appelée Villa 1900 en raison de son inscription sur son fronton, est sans activité à ce jour.
 			Villa 1900.
 			Intérieur de la Villa 1900.
-Ponts
-Un pont en style « rocaille » de l’entreprise d’Édouard Redont est visible ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_de_la_Cerisaie_(Reims)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_la_Cerisaie_(Reims)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ponts</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pont en style « rocaille » de l’entreprise d’Édouard Redont est visible ;
 </t>
         </is>
       </c>
